--- a/pcb/katori_BOM_PCBway.xlsx
+++ b/pcb/katori_BOM_PCBway.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t xml:space="preserve">xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -216,6 +216,9 @@
     <t xml:space="preserve">DNS</t>
   </si>
   <si>
+    <t xml:space="preserve">DNP</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW31</t>
   </si>
   <si>
@@ -313,6 +316,21 @@
   </si>
   <si>
     <t xml:space="preserve">50V 220pF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPA357AIDBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC OPAMP VFB 1 CIRCUIT SOT23-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-6</t>
   </si>
 </sst>
 </file>
@@ -323,7 +341,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +407,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
@@ -465,11 +496,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,27 +541,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,9 +657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="209520"/>
-          <a:ext cx="1376640" cy="375480"/>
+          <a:ext cx="1375560" cy="374400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,8 +870,8 @@
   </sheetPr>
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,26 +988,28 @@
       <c r="H8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>15</v>
@@ -983,22 +1024,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>15</v>
@@ -1010,22 +1051,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>15</v>
@@ -1037,49 +1078,51 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>15</v>
@@ -1091,22 +1134,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>15</v>
@@ -1118,22 +1161,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>15</v>
@@ -1145,39 +1188,53 @@
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,45 +1282,45 @@
       <c r="I21" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/pcb/katori_BOM_PCBway.xlsx
+++ b/pcb/katori_BOM_PCBway.xlsx
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Your Instructions / Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">J2</t>
+    <t xml:space="preserve">J1</t>
   </si>
   <si>
     <t xml:space="preserve">JST</t>
@@ -657,9 +657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -673,11 +673,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="209520"/>
-          <a:ext cx="1375560" cy="374400"/>
+          <a:ext cx="1375200" cy="374040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -870,8 +871,8 @@
   </sheetPr>
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
